--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BFB8D2-B5F1-4040-AA63-BE62CC47AD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F8047-3B6C-4E51-951F-28C7FABA2AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCEDB" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1299,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F8047-3B6C-4E51-951F-28C7FABA2AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4006D3A-349A-43AF-904D-D4BD9AFEC2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCEDB" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="66">
   <si>
     <t>Database</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Other_SQL_query</t>
   </si>
 </sst>
 </file>
@@ -613,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
@@ -997,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1311,9 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1354,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1775,7 +1776,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I22" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4006D3A-349A-43AF-904D-D4BD9AFEC2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37534B5-DED5-4B90-8900-DF901AC1FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCEDB" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1784,7 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71721F47-04BA-4749-B1DB-7A39A434F57B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37534B5-DED5-4B90-8900-DF901AC1FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70ACBB5-0CD4-42C0-AFF3-E33CB3C9FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOURCEDB" sheetId="1" r:id="rId1"/>
-    <sheet name="STAGEDB" sheetId="6" r:id="rId2"/>
-    <sheet name="TARGETDB" sheetId="5" r:id="rId3"/>
-    <sheet name="Table_Mapping" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
+    <sheet name="SOURCEDB" sheetId="1" r:id="rId2"/>
+    <sheet name="STAGEDB" sheetId="6" r:id="rId3"/>
+    <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
+    <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TARGETDB!$A$1:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="81">
   <si>
     <t>Database</t>
   </si>
@@ -269,12 +270,57 @@
   <si>
     <t>Other_SQL_query</t>
   </si>
+  <si>
+    <t>count_validation</t>
+  </si>
+  <si>
+    <t>data_completeness_validation</t>
+  </si>
+  <si>
+    <t>null_validation import NullValidation</t>
+  </si>
+  <si>
+    <t>duplicate_validation</t>
+  </si>
+  <si>
+    <t>datatype_constraints_validation</t>
+  </si>
+  <si>
+    <t>date_field_validation</t>
+  </si>
+  <si>
+    <t>garbage_value_validation</t>
+  </si>
+  <si>
+    <t>other_validation</t>
+  </si>
+  <si>
+    <t>scd_metadata_validation</t>
+  </si>
+  <si>
+    <t>scd_validation_cross_env</t>
+  </si>
+  <si>
+    <t>transformation_validation</t>
+  </si>
+  <si>
+    <t>Sr. no.</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Run (Y/N)</t>
+  </si>
+  <si>
+    <t>datatype_constraints_Cross_ENV_validation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +331,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,10 +370,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,6 +671,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA231C9-6B3D-41AA-B41B-5FF910671F6B}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -996,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -1310,11 +1529,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1780,11 +2001,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71721F47-04BA-4749-B1DB-7A39A434F57B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1833,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70ACBB5-0CD4-42C0-AFF3-E33CB3C9FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571A1D6-690D-4A6C-B1A3-373787649CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="STAGEDB" sheetId="6" r:id="rId3"/>
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="Transformation" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$I$22</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="84">
   <si>
     <t>Database</t>
   </si>
@@ -274,12 +275,6 @@
     <t>count_validation</t>
   </si>
   <si>
-    <t>data_completeness_validation</t>
-  </si>
-  <si>
-    <t>null_validation import NullValidation</t>
-  </si>
-  <si>
     <t>duplicate_validation</t>
   </si>
   <si>
@@ -295,12 +290,6 @@
     <t>other_validation</t>
   </si>
   <si>
-    <t>scd_metadata_validation</t>
-  </si>
-  <si>
-    <t>scd_validation_cross_env</t>
-  </si>
-  <si>
     <t>transformation_validation</t>
   </si>
   <si>
@@ -313,7 +302,28 @@
     <t>Run (Y/N)</t>
   </si>
   <si>
-    <t>datatype_constraints_Cross_ENV_validation</t>
+    <t>data_completeness_validation_SourceToStage</t>
+  </si>
+  <si>
+    <t>data_completeness_validation_StageToTarget</t>
+  </si>
+  <si>
+    <t>datatype_constraints_Cross_ENV_validation_SourceToStage</t>
+  </si>
+  <si>
+    <t>datatype_constraints_Cross_ENV_validation_SourceToTarget</t>
+  </si>
+  <si>
+    <t>scd_validation_cross_env_SourceToStage</t>
+  </si>
+  <si>
+    <t>scd_validation_cross_env_StageToTarget</t>
+  </si>
+  <si>
+    <t>null_validation</t>
+  </si>
+  <si>
+    <t>scd_metadata_field_validation</t>
   </si>
 </sst>
 </file>
@@ -672,26 +682,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA231C9-6B3D-41AA-B41B-5FF910671F6B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.90625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -721,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -732,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -743,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -754,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -765,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -776,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -787,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -798,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -809,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -820,9 +832,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -835,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2055,6 +2100,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C5A8DF-6E13-4C4A-9723-D3EF921005F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6571A1D6-690D-4A6C-B1A3-373787649CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE87AA5-8EB1-4939-BE23-E5A5316D754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="STAGEDB" sheetId="6" r:id="rId3"/>
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
-    <sheet name="Transformation" sheetId="9" r:id="rId6"/>
+    <sheet name="Transformation" sheetId="9" state="hidden" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
   <si>
     <t>Database</t>
   </si>
@@ -116,12 +117,6 @@
     <t>primary_doctor_id</t>
   </si>
   <si>
-    <t>Null_Check_SQL_query</t>
-  </si>
-  <si>
-    <t>Duplicate_Check_SQL_query</t>
-  </si>
-  <si>
     <t>source_table</t>
   </si>
   <si>
@@ -153,9 +148,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>stage_db</t>
@@ -354,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +356,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -388,6 +392,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA231C9-6B3D-41AA-B41B-5FF910671F6B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,13 +706,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -711,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -733,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -788,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -799,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -821,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -832,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -843,10 +852,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,10 +863,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,10 +874,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,58 +899,47 @@
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -952,16 +950,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -972,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -989,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1006,13 +1004,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1023,17 +1021,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H16" si="0">CONCATENATE("SELECT COUNT(*) FROM ",B6," WHERE ",C6," IS NULL")</f>
-        <v>SELECT COUNT(*) FROM source_doctors WHERE phone_number IS NULL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1044,17 +1038,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_doctors WHERE email IS NULL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1055,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE patient_id IS NULL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1089,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1106,17 +1092,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE last_name IS NULL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1127,26 +1109,22 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE date_of_birth IS NULL</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,17 +1135,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE gender IS NULL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1178,17 +1152,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE address IS NULL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1199,17 +1169,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE phone_number IS NULL</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1220,17 +1186,13 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE email IS NULL</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1241,17 +1203,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SELECT COUNT(*) FROM source_patients WHERE primary_doctor_id IS NULL</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1262,11 +1220,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1276,297 +1232,289 @@
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
       <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1576,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,455 +1538,447 @@
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +1991,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,15 +2001,15 @@
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2077,10 +2017,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2088,10 +2028,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2127,81 +2067,81 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE87AA5-8EB1-4939-BE23-E5A5316D754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B27682-6CF1-42E3-88FC-00359F11C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -22,10 +22,9 @@
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="82">
   <si>
     <t>Database</t>
   </si>
@@ -139,9 +138,6 @@
   </si>
   <si>
     <t>load_timestamp</t>
-  </si>
-  <si>
-    <t>Business Key</t>
   </si>
   <si>
     <t>Y</t>
@@ -316,6 +312,12 @@
   </si>
   <si>
     <t>scd_metadata_field_validation</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY, COMPOSITE KEY</t>
+  </si>
+  <si>
+    <t>COMPOSITE KEY</t>
   </si>
 </sst>
 </file>
@@ -346,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,12 +358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,8 +391,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA231C9-6B3D-41AA-B41B-5FF910671F6B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -706,13 +702,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -720,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -731,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -742,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -753,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -764,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -786,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -797,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -808,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -830,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -841,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -852,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -863,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -874,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -887,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,15 +895,14 @@
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -918,28 +913,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -950,16 +942,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -970,13 +959,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -987,13 +973,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1004,13 +987,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1021,13 +1001,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1038,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1055,16 +1032,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1075,13 +1049,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1092,13 +1063,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1109,22 +1077,19 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,13 +1100,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1152,13 +1114,10 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1169,13 +1128,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1186,13 +1142,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1203,13 +1156,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,11 +1181,10 @@
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,21 +1195,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1269,18 +1215,15 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1289,12 +1232,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1303,12 +1246,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1317,12 +1260,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1331,12 +1274,12 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1345,15 +1288,12 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1362,159 +1302,237 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>55</v>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1524,11 +1542,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1536,12 +1552,11 @@
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1552,21 +1567,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1575,18 +1587,15 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1595,15 +1604,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1612,15 +1618,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1629,15 +1632,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1646,15 +1646,12 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1663,15 +1660,15 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1680,66 +1677,54 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1748,18 +1733,15 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1768,15 +1750,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1785,15 +1764,12 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1802,15 +1778,12 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1819,15 +1792,12 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1836,15 +1806,12 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1853,15 +1820,12 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1870,15 +1834,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1887,18 +1848,15 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1907,78 +1865,63 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2067,81 +2010,81 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B27682-6CF1-42E3-88FC-00359F11C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3E800-BBD3-4A20-A192-B7FAD276A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="STAGEDB" sheetId="6" r:id="rId3"/>
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
-    <sheet name="Transformation" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="TRANSFORMATION" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="82">
   <si>
     <t>Database</t>
   </si>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +347,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,12 +364,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -389,8 +389,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -687,11 +686,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA231C9-6B3D-41AA-B41B-5FF910671F6B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -712,7 +712,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -723,7 +723,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -767,7 +767,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -789,7 +789,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -866,7 +866,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -883,11 +883,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -895,14 +896,11 @@
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -915,23 +913,14 @@
       <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -944,11 +933,11 @@
       <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -962,7 +951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -976,7 +965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -990,7 +979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1017,11 +1006,11 @@
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1034,11 +1023,11 @@
       <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1079,17 +1068,8 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1138,7 @@
       <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1170,6 +1150,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B21A9-8A79-4BD6-8902-C0C9C65E074B}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1542,6 +1525,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD59A5C-783E-442B-B86A-BB39B4F6C4E1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1931,6 +1917,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71721F47-04BA-4749-B1DB-7A39A434F57B}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1984,12 +1973,218 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C5A8DF-6E13-4C4A-9723-D3EF921005F9}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3E800-BBD3-4A20-A192-B7FAD276A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2219E279-F692-416B-A30F-78D57F4C0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
     <sheet name="TRANSFORMATION" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Other" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$F$22</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="84">
   <si>
     <t>Database</t>
   </si>
@@ -318,6 +319,12 @@
   </si>
   <si>
     <t>COMPOSITE KEY</t>
+  </si>
+  <si>
+    <t>Other 1</t>
+  </si>
+  <si>
+    <t>SELECT * FROM SOURCE.DOCTORS = SECLECT * FROM SOURCE.PATIENTS</t>
   </si>
 </sst>
 </file>
@@ -380,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -390,8 +397,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +694,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +705,7 @@
     <col min="3" max="3" width="8.90625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -710,8 +715,9 @@
       <c r="C1" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -722,7 +728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -733,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -744,7 +750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -755,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -766,7 +772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -777,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -788,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -799,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -810,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -821,7 +827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -832,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -843,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -854,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -865,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -888,7 +894,9 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1155,7 +1163,9 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1530,7 +1540,9 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1978,16 +1990,18 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2000,13 +2014,13 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2119,13 +2133,13 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2190,6 +2204,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D81598-A8C7-4799-A5EB-F1A6CD0C657C}">
+  <dimension ref="B1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2219E279-F692-416B-A30F-78D57F4C0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904CDA73-BFA4-4CA4-A581-F8859D9F3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
     <sheet name="TRANSFORMATION" sheetId="9" r:id="rId6"/>
-    <sheet name="Other" sheetId="10" r:id="rId7"/>
+    <sheet name="Other" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -696,7 +696,9 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -894,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1165,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1540,7 +1542,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1936,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904CDA73-BFA4-4CA4-A581-F8859D9F3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB84D48-21B1-4F98-B625-7F9E388240C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="TARGETDB" sheetId="5" r:id="rId4"/>
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
     <sheet name="TRANSFORMATION" sheetId="9" r:id="rId6"/>
-    <sheet name="Other" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Referential Integrity Check" sheetId="11" r:id="rId7"/>
+    <sheet name="Other" sheetId="10" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$F$22</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
   <si>
     <t>Database</t>
   </si>
@@ -325,6 +326,21 @@
   </si>
   <si>
     <t>SELECT * FROM SOURCE.DOCTORS = SECLECT * FROM SOURCE.PATIENTS</t>
+  </si>
+  <si>
+    <t>child_table</t>
+  </si>
+  <si>
+    <t>child_column</t>
+  </si>
+  <si>
+    <t>parent_table</t>
+  </si>
+  <si>
+    <t>parent_column</t>
+  </si>
+  <si>
+    <t>Referential_Integrity_validation</t>
   </si>
 </sst>
 </file>
@@ -387,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -397,6 +413,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,11 +716,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -790,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -801,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -812,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -823,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -834,10 +854,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -845,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -856,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
@@ -867,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
@@ -878,9 +898,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -896,7 +927,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1542,8 +1573,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1936,8 +1967,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2206,6 +2237,74 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D2FBF7-26BD-48D5-B6DC-869A19AC9257}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D81598-A8C7-4799-A5EB-F1A6CD0C657C}">
   <dimension ref="B1:F2"/>
   <sheetViews>
@@ -2237,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB84D48-21B1-4F98-B625-7F9E388240C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41064B-5CAE-4F20-BDAC-DB8AFFA4A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,9 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -928,7 +930,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,7 +1970,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41064B-5CAE-4F20-BDAC-DB8AFFA4A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047E4C1-0579-48D0-9264-1BC1B772CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,13 @@
     <sheet name="Table_Mapping" sheetId="2" r:id="rId5"/>
     <sheet name="TRANSFORMATION" sheetId="9" r:id="rId6"/>
     <sheet name="Referential Integrity Check" sheetId="11" r:id="rId7"/>
-    <sheet name="Other" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="TARGETDW" sheetId="12" r:id="rId8"/>
+    <sheet name="Audit_tables" sheetId="14" r:id="rId9"/>
+    <sheet name="Other" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TARGETDB!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="115">
   <si>
     <t>Database</t>
   </si>
@@ -145,16 +147,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>stage_db</t>
   </si>
   <si>
     <t>target_db</t>
-  </si>
-  <si>
-    <t>age</t>
   </si>
   <si>
     <t>Is_Transformation</t>
@@ -341,6 +337,90 @@
   </si>
   <si>
     <t>Referential_Integrity_validation</t>
+  </si>
+  <si>
+    <t>Check_Column_order</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>target_view</t>
+  </si>
+  <si>
+    <t>ETL_Batch_Column_Exclusion_validation</t>
+  </si>
+  <si>
+    <t>Job_Name</t>
+  </si>
+  <si>
+    <t>Job_Command</t>
+  </si>
+  <si>
+    <t>Execute_SP</t>
+  </si>
+  <si>
+    <t>EXEC usp_ETL_Load_Customer</t>
+  </si>
+  <si>
+    <t>SP_Name</t>
+  </si>
+  <si>
+    <t>usp_ETL_Load_Customer</t>
+  </si>
+  <si>
+    <t>Job_Run_validation</t>
+  </si>
+  <si>
+    <t>ETL_Log_Table_validation</t>
+  </si>
+  <si>
+    <t>ETL_Process_Log</t>
+  </si>
+  <si>
+    <t>ETL_Error_Log</t>
+  </si>
+  <si>
+    <t>Audit_table_1</t>
+  </si>
+  <si>
+    <t>Audit_table_2</t>
+  </si>
+  <si>
+    <t>Audit_table_3</t>
+  </si>
+  <si>
+    <t>ETL_Detail_Process_Log</t>
+  </si>
+  <si>
+    <t>Common_Column</t>
+  </si>
+  <si>
+    <t>ETL_Process_VS_Details_validation</t>
+  </si>
+  <si>
+    <t>ProcessLogId, ComponentName</t>
+  </si>
+  <si>
+    <t>deleted_table</t>
+  </si>
+  <si>
+    <t>EX_INNOV_RISK_target_patients_Daily_DELETED</t>
+  </si>
+  <si>
+    <t>DeletedVsTarget_validation</t>
+  </si>
+  <si>
+    <t>DeletedVsSource_validation</t>
+  </si>
+  <si>
+    <t>Readd_Record_validation</t>
+  </si>
+  <si>
+    <t>Data_Precision_validation</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -403,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -418,6 +498,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,11 +802,9 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -731,13 +815,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -746,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -757,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
@@ -768,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -779,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -790,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -801,18 +885,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>88</v>
+      <c r="B8" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -823,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -834,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -845,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
@@ -856,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -867,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -878,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
@@ -889,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
@@ -900,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
@@ -911,10 +995,239 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D81598-A8C7-4799-A5EB-F1A6CD0C657C}">
+  <dimension ref="B1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -929,9 +1242,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -954,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -974,10 +1285,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -991,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1005,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1019,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1033,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1047,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1064,10 +1375,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1081,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1095,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1109,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1123,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1137,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1151,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1165,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1179,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1509,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1223,18 +1534,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1243,15 +1554,15 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1260,12 +1571,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1274,12 +1585,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1288,12 +1599,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1302,12 +1613,12 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1316,12 +1627,12 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1330,54 +1641,54 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1386,15 +1697,15 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1403,12 +1714,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1417,12 +1728,12 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1431,12 +1742,12 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1445,12 +1756,12 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1459,12 +1770,12 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1473,12 +1784,12 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1487,12 +1798,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1501,15 +1812,15 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1518,49 +1829,49 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1575,9 +1886,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1600,18 +1909,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1620,15 +1929,15 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1637,12 +1946,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1651,12 +1960,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1665,12 +1974,12 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1679,12 +1988,12 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1693,15 +2002,15 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1710,54 +2019,54 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1766,15 +2075,15 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1783,12 +2092,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1797,12 +2106,12 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1811,12 +2120,12 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1825,12 +2134,12 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1839,12 +2148,12 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1853,12 +2162,12 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1867,12 +2176,12 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1881,15 +2190,15 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1898,63 +2207,63 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1967,10 +2276,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,9 +2287,11 @@
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1990,8 +2301,14 @@
       <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2001,8 +2318,11 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2011,6 +2331,9 @@
       </c>
       <c r="C3" t="s">
         <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2050,13 +2373,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2172,10 +2495,10 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2259,16 +2582,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2307,30 +2630,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D81598-A8C7-4799-A5EB-F1A6CD0C657C}">
-  <dimension ref="B1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D78C9CF-2A6D-47F8-AE66-F6844ED726B9}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2339,96 +2680,49 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD80F58-FE51-435F-BEE9-A90F23F27F2E}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8822A67-A743-479F-A7AE-98EE71BA9BE2}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssen\Desktop\Data_2025\Learnings &amp; Skill UP\Automation ETL Testing\ETL_Testing_Automation with pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047E4C1-0579-48D0-9264-1BC1B772CEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980F5DA-FEB8-4B57-99B8-E65F74163B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_Suite_Test_cases" sheetId="8" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="116">
   <si>
     <t>Database</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -910,7 +913,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1242,7 +1245,9 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1886,7 +1891,9 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2278,9 +2285,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2349,7 +2354,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
